--- a/src/WarmUp.xlsx
+++ b/src/WarmUp.xlsx
@@ -102,7 +102,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>Satisfaction Level</a:t>
+              <a:t>Satisfaction Level W=0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -112,14 +112,10 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'emp=8'!$B$4</c:f>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng" w="19050">
               <a:solidFill>
@@ -132,81 +128,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'emp=8'!$A$5:$A$101</c:f>
+              <c:f>'emp=8'!$A$4:$A$101</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'emp=8'!$B$5:$B$101</c:f>
+              <c:f>'emp=8'!$B$4:$B$101</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'emp=8'!$C$4</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng" w="19050">
-              <a:solidFill>
-                <a:srgbClr val="DC3912"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'emp=8'!$A$5:$A$101</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'emp=8'!$C$5:$C$101</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'emp=8'!$D$4</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng" w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF9900"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'emp=8'!$A$5:$A$101</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'emp=8'!$D$5:$D$101</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1599915947"/>
-        <c:axId val="405827442"/>
+        <c:axId val="154581954"/>
+        <c:axId val="796471572"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1599915947"/>
+        <c:axId val="154581954"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -221,10 +157,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405827442"/>
+        <c:crossAx val="796471572"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405827442"/>
+        <c:axId val="796471572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -255,18 +191,346 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599915947"/>
+        <c:crossAx val="154581954"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
   </c:chart>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Average Daily Cost W=0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'emp=8'!$B$106</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'emp=8'!$A$107:$A$203</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'emp=8'!$B$107:$B$203</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1943401551"/>
+        <c:axId val="366548154"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1943401551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366548154"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="366548154"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1943401551"/>
+      </c:valAx>
+    </c:plotArea>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Satisfaction Level W=1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'emp=8'!$A$4:$A$101</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'emp=8'!$C$4:$C$101</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1340421512"/>
+        <c:axId val="588444711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1340421512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588444711"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588444711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340421512"/>
+      </c:valAx>
+    </c:plotArea>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Satisfaction Level W=3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'emp=8'!$A$4:$A$101</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'emp=8'!$D$4:$D$101</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="415410269"/>
+        <c:axId val="154222188"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="415410269"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154222188"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154222188"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415410269"/>
+      </c:valAx>
+    </c:plotArea>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -379,11 +643,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="329153554"/>
-        <c:axId val="476020848"/>
+        <c:axId val="879151258"/>
+        <c:axId val="1634420428"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329153554"/>
+        <c:axId val="879151258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,10 +662,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476020848"/>
+        <c:crossAx val="1634420428"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476020848"/>
+        <c:axId val="1634420428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,13 +696,418 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329153554"/>
+        <c:crossAx val="879151258"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Average Daily Cost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'emp=8'!$B$106</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'emp=8'!$A$107:$A$203</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'emp=8'!$B$107:$B$203</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'emp=8'!$C$106</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'emp=8'!$A$107:$A$203</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'emp=8'!$C$107:$C$203</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'emp=8'!$D$106</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'emp=8'!$A$107:$A$203</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'emp=8'!$D$107:$D$203</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1631355803"/>
+        <c:axId val="378725757"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1631355803"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378725757"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="378725757"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1631355803"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Average Daily Cost W=1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'emp=8'!$C$106</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'emp=8'!$A$107:$A$203</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'emp=8'!$C$107:$C$203</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1975191240"/>
+        <c:axId val="732605064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1975191240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732605064"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="732605064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975191240"/>
+      </c:valAx>
+    </c:plotArea>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Average Daily Cost W=3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'emp=8'!$D$106</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'emp=8'!$A$107:$A$203</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'emp=8'!$D$107:$D$203</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="148989338"/>
+        <c:axId val="407259059"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148989338"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407259059"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407259059"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148989338"/>
+      </c:valAx>
+    </c:plotArea>
   </c:chart>
 </c:chartSpace>
 </file>
@@ -478,15 +1147,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -505,6 +1174,186 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 8" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
